--- a/exercises.xlsx
+++ b/exercises.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,6 +613,72 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>950157812</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sonyfication</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-10-19 11:53:57</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-10-19 11:53:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Дыхание 4–7–8 (поддержка ERP)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>🌀 Навязчивые мысли, действия (ОКР)</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:04:39</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:04:39</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exercises.xlsx
+++ b/exercises.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Exercises" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Safety" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -424,7 +425,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,7 +680,1906 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>План восстановления</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>🔄 Стресс, усталость, выгорание</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:31:13</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:31:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>План восстановления</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>🔄 Стресс, усталость, выгорание</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:31:42</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Тело: 1 действие (сон/движение/еда/вода).</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Стала легче себя ощущать</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:31:42</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:31:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>План восстановления</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>🔄 Стресс, усталость, выгорание</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:31:56</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ум: 1 действие (пауза/фокус/план).</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Стало спокойнее</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:31:56</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:31:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>План восстановления</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>🔄 Стресс, усталость, выгорание</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:32:09</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Душа: 1 действие (поддержка/радость/смысл).</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Нашла радость в событии</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:32:09</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:32:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>План восстановления</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>🔄 Стресс, усталость, выгорание</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:32:23</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Оценка, что помогло больше всего.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Хорошее событие</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:32:23</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Могу регулировать своё состояние</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Разнообразие методик</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Сложность выбрать действие</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:32:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:37:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:37:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:37:39</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ситуация → «Переписка с клиентом вечером».</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Чувствую тревогу касательно выступления</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:37:39</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:38:01</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>«Горячая мысль» → «Я всё испортил(а)».</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Кажется, я не справлюсь</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:38:01</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:38:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:38:23</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Эмоции 0–100 → «Стыд 80».</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Тревога - 80, страх - 70</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:38:23</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:38:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:39:07</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Факты «за» / «против» → За: «Опечатка в письме». Против: «Клиент ответил дружелюбно».</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Да, я могу не справиться. Факты против: но ничего страшного не случится</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:39:07</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:39:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:39:34</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Альтернатива → «Опечатки бывают; смысл понятен; отправлю уточнение».</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Я могу справиться с этой задачей</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:39:34</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:39:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:40:33</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Вера в старую мысль сейчас (0–100) → сравнить с шагом 3.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>• Что делала: представила ситуацию 
+• Что почувствовала: понимание, что не всё так страшно
+• Какие выводы: тревога снизилась</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:40:33</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Тревога снизилась</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Выбрать альтернативную мысль</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Сложно было придумать альтернативу</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:40:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Лестница экспозиций → Экспозиция in vivo / в воображении</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:45:46</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:45:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:49:53</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:49:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:50:50</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Ситуация → «Переписка с клиентом вечером».</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:50:50</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:50:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:51:02</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>«Горячая мысль» → «Я всё испортил(а)».</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>хочу умереть</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:51:02</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:51:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>(по задачам) Декомпозиция</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>🎯 Перфекционизм</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:05</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>(по задачам) Декомпозиция</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>🎯 Перфекционизм</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:15</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Ситуация. «Опиши эпизод за последние 24 ч: где/когда/с кем?»</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Хочу умереть</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:15</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:27</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>(по задачам) Декомпозиция</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>🎯 Перфекционизм</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:29</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Мысль. «Какая мысль пришла первой?»</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Никаких выводов</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:29</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>(по задачам) Декомпозиция</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>🎯 Перфекционизм</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:36</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Эмоции/тело. «Что почувствовал(а) и где в теле? Оцени 0–100.»</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Ничего не чувствую</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:36</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>(по задачам) Декомпозиция</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>🎯 Перфекционизм</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:44</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Поведение. «Что сделал(а)?»</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Ничего, отстань</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:44</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:49</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Ситуация → «Переписка с клиентом вечером».</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Волнуюсь перед выступлением</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:49</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>(по задачам) Декомпозиция</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>🎯 Перфекционизм</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:54</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>5</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Слабое звено. «Где попробуем повлиять сегодня (мысль/эмоция/поведение/подготовка тела)?»</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Что за тупость</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:54</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Никаких инсайтов</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Ничего полезного</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Сквюучный бот</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:59</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>«Горячая мысль» → «Я всё испортил(а)».</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Хочу умереть</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:59</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:54:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:55:40</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Эмоции 0–100 → «Стыд 80».</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Чувствую ещё тревогу</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:55:40</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:55:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:56:16</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Факты «за» / «против» → За: «Опечатка в письме». Против: «Клиент ответил дружелюбно».</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Да, я могу плохо выступить; но всё может быть хорошо</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:56:16</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:56:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>План профилактики рецидивов</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>💥 Панические атаки</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:00:36</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:00:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:33:02</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:33:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:33:42</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Ситуация → «Переписка с клиентом вечером».</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Тревога перед выступлением</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:33:42</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:33:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:34:09</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>«Горячая мысль» → «Я всё испортил(а)».</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Думаю, что не справлюсь</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:34:09</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:34:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:35:07</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Эмоции 0–100 → «Стыд 80».</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Тревога и страх</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:35:07</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:35:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:35:56</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Факты «за» / «против» → За: «Опечатка в письме». Против: «Клиент ответил дружелюбно».</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Да, я могу не справиться, но это не страшно</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:35:56</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:35:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:36:26</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>5</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Альтернатива → «Опечатки бывают; смысл понятен; отправлю уточнение».</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Ошибки бывают у всех, это не критично</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:36:26</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:36:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:38:34</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:38:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:39:10</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Ситуация → «Переписка с клиентом вечером».</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Чувствую тревогу перед выступлением</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:39:10</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:39:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:41:03</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>«Горячая мысль» → «Я всё испортил(а)».</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Я не справляюсь</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:41:03</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:41:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Запись автоматических мыслей · Когнитивная реструктуризация</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>😟 Тревога, беспокойство</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:41:18</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Эмоции 0–100 → «Стыд 80».</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Тревога и страх</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:41:18</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:41:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>User ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Detection Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Crisis Type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Context</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Text Sample</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-10-19 13:00:46</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Суицидальные мысли</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>exercise</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>хочу умереть</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/exercises.xlsx
+++ b/exercises.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2498,6 +2498,156 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6893133357</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>nadzh_k</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Дневник активности · План приятных дел</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>😞 Потеря интереса, апатия / Сниженное настроение</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-10-19 20:59:53</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2025-10-19 20:59:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6893133357</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>nadzh_k</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Проблемно-решающая терапия (PST)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>😞 Потеря интереса, апатия / Сниженное настроение</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-10-19 21:00:16</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2025-10-19 21:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6893133357</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>nadzh_k</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>План восстановления</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>😞 Потеря интереса, апатия / Сниженное настроение</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-10-19 21:00:40</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2025-10-19 21:00:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6893133357</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>nadzh_k</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>План восстановления</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>😞 Потеря интереса, апатия / Сниженное настроение</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-10-19 21:01:18</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Тело: 1 действие (сон/движение/еда/вода).</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Работаю, бегаю туда сюда</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2025-10-19 21:01:18</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2025-10-19 21:01:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
